--- a/tests/component/update_student_sheets/test_cases/student_sheet_skip_n_rows_case/teacher.xlsx
+++ b/tests/component/update_student_sheets/test_cases/student_sheet_skip_n_rows_case/teacher.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsha\Documents\Git\student-teacher-gradebook\tests\component\update_student_sheets\test_cases\student_skip_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsha\Documents\Git\student-teacher-gradebook\tests\component\update_student_sheets\test_cases\student_sheet_skip_n_rows_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2DC7C-36AB-4A61-89F6-896DA384038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B17683-7F15-4E3A-A17E-05CFF79F1397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1C66C71B-6ED8-4699-9FB2-CB3156D48D4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{1C66C71B-6ED8-4699-9FB2-CB3156D48D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Skip n Rows When Copying Student data:</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>alsdkjfalkfj</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BD79E6-C759-4AA3-AE66-326FEBA345D6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -596,10 +605,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876F72B6-B476-4551-93FD-7FEC013DA096}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,28 +619,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1">
-        <v>13</v>
-      </c>
-      <c r="C1">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>98.5</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>45</v>
       </c>
     </row>
